--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1729.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1729.xlsx
@@ -354,7 +354,7 @@
         <v>0.9215221499751808</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.929611060110623</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1729.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1729.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4473476355745953</v>
+        <v>0.9491214156150818</v>
       </c>
       <c r="B1">
-        <v>0.9215221499751808</v>
+        <v>1.647272109985352</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.929611060110623</v>
+        <v>1.805267333984375</v>
       </c>
       <c r="E1">
-        <v>1.843403774664652</v>
+        <v>1.076490759849548</v>
       </c>
     </row>
   </sheetData>
